--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -26,15 +26,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>日期</t>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>早起</t>
+    <t>get_up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冥想</t>
+    <t>meditation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -392,133 +392,4759 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>45415</v>
+        <v>45292</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f ca="1">ROUND(RAND(),0)</f>
+        <v>1</v>
       </c>
       <c r="C2">
+        <f ca="1">ROUND(RAND(),0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>45416</v>
+        <v>45293</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <f t="shared" ref="B3:C18" ca="1" si="0">ROUND(RAND(),0)</f>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>45417</v>
+        <v>45294</v>
       </c>
       <c r="B4">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="C4">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>45418</v>
+        <v>45295</v>
       </c>
       <c r="B5">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>45419</v>
+        <v>45296</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C6">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>45420</v>
+        <v>45297</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C7">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>45421</v>
+        <v>45298</v>
       </c>
       <c r="B8">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>45422</v>
+        <v>45299</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C9">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>45423</v>
+        <v>45300</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>45424</v>
+        <v>45301</v>
       </c>
       <c r="B11">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="C11">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>45425</v>
+        <v>45302</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C12">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>45304</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>45305</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:C82" ca="1" si="1">ROUND(RAND(),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>45312</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>45318</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>45319</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>45325</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>45326</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>45332</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>45333</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>45340</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>45347</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>45354</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>45360</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>45361</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:C146" ca="1" si="2">ROUND(RAND(),0)</f>
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="1">
+        <v>45380</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="1">
+        <v>45381</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="1">
+        <v>45388</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="1">
+        <v>45389</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="1">
+        <v>45395</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B113">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B118">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B119">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B125">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B127">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B129">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B133">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134" s="1">
+        <v>45424</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A135" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B135">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136" s="1">
         <v>45426</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B136">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A138" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B138">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A139" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B139">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A140" s="1">
+        <v>45430</v>
+      </c>
+      <c r="B140">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A141" s="1">
+        <v>45431</v>
+      </c>
+      <c r="B141">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A142" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B142">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A143" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B143">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A144" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B144">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A145" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B145">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A146" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B146">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A147" s="1">
+        <v>45437</v>
+      </c>
+      <c r="B147">
+        <f t="shared" ref="B147:C210" ca="1" si="3">ROUND(RAND(),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A148" s="1">
+        <v>45438</v>
+      </c>
+      <c r="B148">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A149" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B149">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A150" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B150">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A151" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B151">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A152" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B152">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A153" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B153">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A154" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B154">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A155" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B155">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A156" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B156">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A157" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B157">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A158" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B158">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A159" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B159">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A160" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B160">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A161" s="1">
+        <v>45451</v>
+      </c>
+      <c r="B161">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A162" s="1">
+        <v>45452</v>
+      </c>
+      <c r="B162">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A163" s="1">
+        <v>45453</v>
+      </c>
+      <c r="B163">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A164" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B164">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A165" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B165">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A166" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B166">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A167" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B167">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A168" s="1">
+        <v>45458</v>
+      </c>
+      <c r="B168">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A169" s="1">
+        <v>45459</v>
+      </c>
+      <c r="B169">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A170" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B170">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A171" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B171">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A172" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B172">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A173" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B173">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A174" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B174">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A175" s="1">
+        <v>45465</v>
+      </c>
+      <c r="B175">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A176" s="1">
+        <v>45466</v>
+      </c>
+      <c r="B176">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A177" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B177">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A178" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B178">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A179" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B179">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A180" s="1">
+        <v>45470</v>
+      </c>
+      <c r="B180">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A181" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B181">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A182" s="1">
+        <v>45472</v>
+      </c>
+      <c r="B182">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A183" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B183">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A184" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B184">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A185" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B185">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A186" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B186">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A187" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B187">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A188" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B188">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A189" s="1">
+        <v>45479</v>
+      </c>
+      <c r="B189">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A190" s="1">
+        <v>45480</v>
+      </c>
+      <c r="B190">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A191" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B191">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A192" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B192">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A193" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B193">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A194" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B194">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A195" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B195">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A196" s="1">
+        <v>45486</v>
+      </c>
+      <c r="B196">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A197" s="1">
+        <v>45487</v>
+      </c>
+      <c r="B197">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A198" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B198">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A199" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B199">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A200" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B200">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A201" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B201">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A202" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B202">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A203" s="1">
+        <v>45493</v>
+      </c>
+      <c r="B203">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A204" s="1">
+        <v>45494</v>
+      </c>
+      <c r="B204">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A205" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B205">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A206" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B206">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A207" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B207">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A208" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B208">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A209" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B209">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A210" s="1">
+        <v>45500</v>
+      </c>
+      <c r="B210">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A211" s="1">
+        <v>45501</v>
+      </c>
+      <c r="B211">
+        <f t="shared" ref="B211:C274" ca="1" si="4">ROUND(RAND(),0)</f>
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A212" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B212">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A213" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B213">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A214" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B214">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A215" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B215">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A216" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B216">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A217" s="1">
+        <v>45507</v>
+      </c>
+      <c r="B217">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A218" s="1">
+        <v>45508</v>
+      </c>
+      <c r="B218">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A219" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B219">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A220" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B220">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A221" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B221">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A222" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B222">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A223" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B223">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A224" s="1">
+        <v>45514</v>
+      </c>
+      <c r="B224">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A225" s="1">
+        <v>45515</v>
+      </c>
+      <c r="B225">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A226" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B226">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A227" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B227">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A228" s="1">
+        <v>45518</v>
+      </c>
+      <c r="B228">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A229" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B229">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A230" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B230">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A231" s="1">
+        <v>45521</v>
+      </c>
+      <c r="B231">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A232" s="1">
+        <v>45522</v>
+      </c>
+      <c r="B232">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A233" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B233">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A234" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B234">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A235" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B235">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A236" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B236">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A237" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B237">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A238" s="1">
+        <v>45528</v>
+      </c>
+      <c r="B238">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A239" s="1">
+        <v>45529</v>
+      </c>
+      <c r="B239">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A240" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B240">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A241" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B241">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A242" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B242">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A243" s="1">
+        <v>45533</v>
+      </c>
+      <c r="B243">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A244" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B244">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A245" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B245">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A246" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B246">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A247" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B247">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A248" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B248">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A249" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B249">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A250" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B250">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A251" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B251">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A252" s="1">
+        <v>45542</v>
+      </c>
+      <c r="B252">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A253" s="1">
+        <v>45543</v>
+      </c>
+      <c r="B253">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A254" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B254">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A255" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B255">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A256" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B256">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A257" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B257">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A258" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B258">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A259" s="1">
+        <v>45549</v>
+      </c>
+      <c r="B259">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A260" s="1">
+        <v>45550</v>
+      </c>
+      <c r="B260">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A261" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B261">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A262" s="1">
+        <v>45552</v>
+      </c>
+      <c r="B262">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A263" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B263">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A264" s="1">
+        <v>45554</v>
+      </c>
+      <c r="B264">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A265" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B265">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A266" s="1">
+        <v>45556</v>
+      </c>
+      <c r="B266">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A267" s="1">
+        <v>45557</v>
+      </c>
+      <c r="B267">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A268" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B268">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A269" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B269">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A270" s="1">
+        <v>45560</v>
+      </c>
+      <c r="B270">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A271" s="1">
+        <v>45561</v>
+      </c>
+      <c r="B271">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A272" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B272">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A273" s="1">
+        <v>45563</v>
+      </c>
+      <c r="B273">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A274" s="1">
+        <v>45564</v>
+      </c>
+      <c r="B274">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A275" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B275">
+        <f t="shared" ref="B275:C338" ca="1" si="5">ROUND(RAND(),0)</f>
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A276" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B276">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A277" s="1">
+        <v>45567</v>
+      </c>
+      <c r="B277">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A278" s="1">
+        <v>45568</v>
+      </c>
+      <c r="B278">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A279" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B279">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A280" s="1">
+        <v>45570</v>
+      </c>
+      <c r="B280">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A281" s="1">
+        <v>45571</v>
+      </c>
+      <c r="B281">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A282" s="1">
+        <v>45572</v>
+      </c>
+      <c r="B282">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A283" s="1">
+        <v>45573</v>
+      </c>
+      <c r="B283">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A284" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B284">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A285" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B285">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A286" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B286">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A287" s="1">
+        <v>45577</v>
+      </c>
+      <c r="B287">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A288" s="1">
+        <v>45578</v>
+      </c>
+      <c r="B288">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A289" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B289">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A290" s="1">
+        <v>45580</v>
+      </c>
+      <c r="B290">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A291" s="1">
+        <v>45581</v>
+      </c>
+      <c r="B291">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A292" s="1">
+        <v>45582</v>
+      </c>
+      <c r="B292">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A293" s="1">
+        <v>45583</v>
+      </c>
+      <c r="B293">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A294" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B294">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A295" s="1">
+        <v>45585</v>
+      </c>
+      <c r="B295">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A296" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B296">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A297" s="1">
+        <v>45587</v>
+      </c>
+      <c r="B297">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A298" s="1">
+        <v>45588</v>
+      </c>
+      <c r="B298">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A299" s="1">
+        <v>45589</v>
+      </c>
+      <c r="B299">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A300" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B300">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A301" s="1">
+        <v>45591</v>
+      </c>
+      <c r="B301">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A302" s="1">
+        <v>45592</v>
+      </c>
+      <c r="B302">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A303" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B303">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A304" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B304">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A305" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B305">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A306" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B306">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A307" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B307">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A308" s="1">
+        <v>45598</v>
+      </c>
+      <c r="B308">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A309" s="1">
+        <v>45599</v>
+      </c>
+      <c r="B309">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C309">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A310" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B310">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A311" s="1">
+        <v>45601</v>
+      </c>
+      <c r="B311">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A312" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B312">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A313" s="1">
+        <v>45603</v>
+      </c>
+      <c r="B313">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A314" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B314">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A315" s="1">
+        <v>45605</v>
+      </c>
+      <c r="B315">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A316" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B316">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A317" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B317">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A318" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B318">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A319" s="1">
+        <v>45609</v>
+      </c>
+      <c r="B319">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A320" s="1">
+        <v>45610</v>
+      </c>
+      <c r="B320">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A321" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B321">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A322" s="1">
+        <v>45612</v>
+      </c>
+      <c r="B322">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A323" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B323">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A324" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B324">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A325" s="1">
+        <v>45615</v>
+      </c>
+      <c r="B325">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A326" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B326">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A327" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B327">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A328" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B328">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A329" s="1">
+        <v>45619</v>
+      </c>
+      <c r="B329">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A330" s="1">
+        <v>45620</v>
+      </c>
+      <c r="B330">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A331" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B331">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A332" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B332">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A333" s="1">
+        <v>45623</v>
+      </c>
+      <c r="B333">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A334" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B334">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A335" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B335">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A336" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B336">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A337" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B337">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A338" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B338">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A339" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B339">
+        <f t="shared" ref="B339:C365" ca="1" si="6">ROUND(RAND(),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A340" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B340">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A341" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B341">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A342" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B342">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A343" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B343">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A344" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B344">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A345" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B345">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A346" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B346">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A347" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B347">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A348" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B348">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A349" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B349">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A350" s="1">
+        <v>45640</v>
+      </c>
+      <c r="B350">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A351" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B351">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A352" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B352">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A353" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B353">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A354" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B354">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A355" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B355">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A356" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B356">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A357" s="1">
+        <v>45647</v>
+      </c>
+      <c r="B357">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A358" s="1">
+        <v>45648</v>
+      </c>
+      <c r="B358">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A359" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B359">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A360" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B360">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A361" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B361">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C361">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A362" s="1">
+        <v>45652</v>
+      </c>
+      <c r="B362">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A363" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B363">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A364" s="1">
+        <v>45654</v>
+      </c>
+      <c r="B364">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A365" s="1">
+        <v>45655</v>
+      </c>
+      <c r="B365">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A366" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B366">
+        <f ca="1">ROUND(RAND(),0)</f>
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <f ca="1">ROUND(RAND(),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A367" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B367">
+        <f t="shared" ref="B367:C367" ca="1" si="7">ROUND(RAND(),0)</f>
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -508,13 +508,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -576,13 +576,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -610,13 +610,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -644,13 +644,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -882,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1052,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1222,13 +1222,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1256,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1902,13 +1902,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2276,13 +2276,13 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2310,13 +2310,13 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2443,16 +2443,16 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2477,16 +2477,16 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2511,16 +2511,16 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,16 +2545,16 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2579,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -2613,16 +2613,16 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2647,16 +2647,16 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2749,16 +2749,16 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2783,16 +2783,16 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,16 +2953,16 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2987,16 +2987,16 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3021,16 +3021,16 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -3089,16 +3089,16 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3123,16 +3123,16 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,16 +3157,16 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3191,16 +3191,16 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3225,16 +3225,16 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3259,16 +3259,16 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3327,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -3361,16 +3361,16 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3463,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3497,16 +3497,16 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3565,16 +3565,16 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3599,16 +3599,16 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3633,16 +3633,16 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3701,10 +3701,10 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3735,16 +3735,16 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3769,16 +3769,16 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3803,16 +3803,16 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3871,16 +3871,16 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3905,10 +3905,10 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3973,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -4007,16 +4007,16 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4041,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4075,10 +4075,10 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4177,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -4211,10 +4211,10 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -4245,16 +4245,16 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4279,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -4313,10 +4313,10 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -4347,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -4381,10 +4381,10 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -4415,10 +4415,10 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -4449,10 +4449,10 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -4486,13 +4486,13 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -4755,25 +4755,25 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -4789,25 +4789,25 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -4820,28 +4820,28 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -4854,19 +4854,19 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -4888,28 +4888,28 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -4931,13 +4931,13 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -4956,13 +4956,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -4993,19 +4993,19 @@
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5024,19 +5024,19 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5058,19 +5058,19 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5132,13 +5132,13 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5160,19 +5160,19 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5194,13 +5194,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5228,19 +5228,19 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5302,19 +5302,19 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -5330,19 +5330,19 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5364,13 +5364,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5398,28 +5398,28 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -5432,13 +5432,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5432,28 +5432,28 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5466,28 +5466,28 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5500,22 +5500,22 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5602,19 +5602,19 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -5636,16 +5636,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -5676,13 +5676,13 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5685,7 +5685,7 @@
         <v>4</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5704,28 +5704,28 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5738,28 +5738,28 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5772,22 +5772,22 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5806,25 +5806,25 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5840,13 +5840,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5874,13 +5874,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -5908,19 +5908,19 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5942,10 +5942,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -5979,16 +5979,16 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6214,28 +6214,28 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6248,28 +6248,28 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6282,28 +6282,28 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6316,13 +6316,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -6331,13 +6331,13 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6356,16 +6356,16 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6390,16 +6390,16 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6424,22 +6424,22 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6452,28 +6452,28 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6486,19 +6486,19 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6520,28 +6520,28 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6554,28 +6554,28 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6588,19 +6588,19 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6622,28 +6622,28 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6656,28 +6656,28 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6690,19 +6690,19 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6724,19 +6724,19 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6758,19 +6758,19 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6792,28 +6792,28 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6826,19 +6826,19 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6860,28 +6860,28 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6900,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6928,19 +6928,19 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6962,13 +6962,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -6999,25 +6999,25 @@
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7030,28 +7030,28 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7064,28 +7064,28 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7098,13 +7098,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7138,10 +7138,10 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7172,10 +7172,10 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7200,13 +7200,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -7240,10 +7240,10 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
@@ -7252,10 +7252,10 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7268,19 +7268,19 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7302,16 +7302,16 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7342,13 +7342,13 @@
         <v>0</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7410,16 +7410,16 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -7419,7 +7419,7 @@
         <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7438,22 +7438,22 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7478,13 +7478,13 @@
         <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7493,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7506,28 +7506,28 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7540,28 +7540,28 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7580,22 +7580,22 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7608,19 +7608,19 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7642,28 +7642,28 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7682,10 +7682,10 @@
         <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>
@@ -7697,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7710,28 +7710,28 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7744,28 +7744,28 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7778,28 +7778,28 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7812,19 +7812,19 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7833,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7880,19 +7880,19 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -7901,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7914,16 +7914,16 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7954,22 +7954,22 @@
         <v>0</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">

--- a/statistics/2024_data.xlsx
+++ b/statistics/2024_data.xlsx
@@ -7982,28 +7982,28 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -8016,16 +8016,16 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
